--- a/bot/files/schedule.xlsx
+++ b/bot/files/schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,686 +755,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18.11.2023 СБ</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>онлайн-6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Основы российской государ.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Кичеев В.Г.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>18.11.2023 СБ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>онлайн-6</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Основы российской государ.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Кичеев В.Г.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>18.11.2023 СБ</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Онлайн курс</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Безопасность жизнедеятель.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>лек</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20.11.2023 ПН</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>202(кир)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Введение в профессию.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>лек</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Блинова Е.-А.И.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>20.11.2023 ПН</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>202(кир)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Введение в профессию.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>лек</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Блинова Е.-А.И.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>21.11.2023 ВТ</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>308(кир)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Всеобщая история.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Серегичев С.Ю.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>21.11.2023 ВТ</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>308(кир)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Всеобщая история.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Серегичев С.Ю.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>21.11.2023 ВТ</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>307(кир)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Русский язык и культура р.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Яковлева Ю.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>21.11.2023 ВТ</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>307(кир)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Русский язык и культура р.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Яковлева Ю.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>22.11.2023 СР</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>304(кир)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Иностранный язык.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Ляшенко М.А.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>22.11.2023 СР</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>305(кир)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Объектно-ориентированное .</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>лек</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Мальшаков Г.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>22.11.2023 СР</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>305(кир)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Основы программирования.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>лек</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Мальшаков Г.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22.11.2023 СР</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>304(кир)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Иностранный язык.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Ляшенко М.А.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>23.11.2023 ЧТ</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>303(кир)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>История России.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Антонова Е.А.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>23.11.2023 ЧТ</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>303(кир)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>История России.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Антонова Е.А.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>23.11.2023 ЧТ</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>117(кир)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Основы программирования.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Мальшаков Г.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>23.11.2023 ЧТ</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>117(кир)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Основы программирования.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>сем</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Мальшаков Г.В.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
